--- a/Crawling/ani_a.xlsx
+++ b/Crawling/ani_a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.97.45139"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="563">
   <si>
     <t>제목</t>
   </si>
@@ -38,1408 +38,1672 @@
     <t>꿈을 먹는 메리</t>
   </si>
   <si>
+    <t>판타지, 액션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BF%88%EC%9D%84%20%EB%A8%B9%EB%8A%94%20%EB%A9%94%EB%A6%AC</t>
+  </si>
+  <si>
+    <t>가난뱅이 신이!</t>
+  </si>
+  <si>
+    <t>개그, 희극</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EB%82%9C%EB%B1%85%EC%9D%B4%20%EC%8B%A0%EC%9D%B4!</t>
+  </si>
+  <si>
+    <t>가르쳐줘! 갸루코쨩</t>
+  </si>
+  <si>
+    <t>학원, 코미디, 일상, 희극</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EB%A5%B4%EC%B3%90%EC%A4%98!%20%EA%B0%B8%EB%A3%A8%EC%BD%94%EC%A8%A9</t>
+  </si>
+  <si>
+    <t>가면의 메이드가이</t>
+  </si>
+  <si>
+    <t>코미디, 배틀, 코미디, 배틀</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EB%A9%B4%EC%9D%98%20%EB%A9%94%EC%9D%B4%EB%93%9C%EA%B0%80%EC%9D%B4</t>
+  </si>
+  <si>
+    <t>가부키부!</t>
+  </si>
+  <si>
+    <t>가부키, 학원물, 가부키, 학원물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EB%B6%80%ED%82%A4%EB%B6%80!</t>
+  </si>
+  <si>
+    <t>가브릴 드롭아웃</t>
+  </si>
+  <si>
+    <t>판타지, 일상, 개그, 드라마, 천사, 악마, 희극, 일상물, 초자연물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EB%B8%8C%EB%A6%B4%20%EB%93%9C%EB%A1%AD%EC%95%84%EC%9B%83/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>가사라키</t>
+  </si>
+  <si>
+    <t>거대로봇, 일본의 애니메이션, 액션, 모험, 군사, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EC%82%AC%EB%9D%BC%ED%82%A4</t>
+  </si>
+  <si>
+    <t>가시나무왕</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 공포 영화, 액션, 모험, SF, 판타지, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EC%8B%9C%EB%82%98%EB%AC%B4%EC%99%95</t>
+  </si>
+  <si>
+    <t>가이킹 LEGEND OF DAIKU-MARYU</t>
+  </si>
+  <si>
+    <t>거대로봇,</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EC%9D%B4%ED%82%B9%20LEGEND%20OF%20DAIKU-MARYU</t>
+  </si>
+  <si>
+    <t>가자! 우주전함 야마모토 요코</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EC%9E%90!%20%EC%9A%B0%EC%A3%BC%EC%A0%84%ED%95%A8%20%EC%95%BC%EB%A7%88%EB%AA%A8%ED%86%A0%20%EC%9A%94%EC%BD%94</t>
+  </si>
+  <si>
+    <t>가정교사 히트맨 REBORN!</t>
+  </si>
+  <si>
+    <t>능력자 배틀, 전기, 블랙 코미디, 소년만화, 모험물, 희극, 초자연물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%80%EC%A0%95%EA%B5%90%EC%82%AC%20%ED%9E%88%ED%8A%B8%EB%A7%A8%20REBORN!</t>
+  </si>
+  <si>
+    <t>간츠</t>
+  </si>
+  <si>
+    <t>SF, 청년만화, 공포 영화, 모험, SF, 스릴러, 공포물, 애니메이션, 액션, 액션/어드벤처</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%84%EC%B8%A0</t>
+  </si>
+  <si>
+    <t>갈릴레이 돈나</t>
+  </si>
+  <si>
+    <t>SF, 로맨스, 모험, SF, 애니메이션, 액션, Crime TV genre</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%88%EB%A6%B4%EB%A0%88%EC%9D%B4%20%EB%8F%88%EB%82%98</t>
+  </si>
+  <si>
+    <t>감바의 모험</t>
+  </si>
+  <si>
+    <t>모험, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%90%EB%B0%94%EC%9D%98%20%EB%AA%A8%ED%97%98</t>
+  </si>
+  <si>
+    <t>감옥학원</t>
+  </si>
+  <si>
+    <t>그라제니, 코미디, 코미디</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%90%EC%98%A5%ED%95%99%EC%9B%90</t>
+  </si>
+  <si>
+    <t>갑작스레! 고양이 나라 바니팔 위트</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%91%EC%9E%91%EC%8A%A4%EB%A0%88!%20%EA%B3%A0%EC%96%91%EC%9D%B4%20%EB%82%98%EB%9D%BC%20%EB%B0%94%EB%8B%88%ED%8C%94%20%EC%9C%84%ED%8A%B8</t>
+  </si>
+  <si>
+    <t>갑충왕자 무시킹</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%91%EC%B6%A9%EC%99%95%EC%9E%90%20%EB%AC%B4%EC%8B%9C%ED%82%B9</t>
+  </si>
+  <si>
+    <t>갑철성의 카바네리</t>
+  </si>
+  <si>
+    <t>좀비 아포칼립스, 스팀펑크, 일본의 애니메이션, 스팀펑크, 포스트 아포칼립스 픽션, 다크 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%91%EC%B2%A0%EC%84%B1%EC%9D%98%20%EC%B9%B4%EB%B0%94%EB%84%A4%EB%A6%AC</t>
+  </si>
+  <si>
+    <t>강각의 레기오스</t>
+  </si>
+  <si>
+    <t>학원 배틀, 판타지, 일본의 애니메이션, 드라마, 모험, SF, 애니메이션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%95%EA%B0%81%EC%9D%98%20%EB%A0%88%EA%B8%B0%EC%98%A4%EC%8A%A4</t>
+  </si>
+  <si>
+    <t>강식장갑 가이버</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, SF</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%95%EC%8B%9D%EC%9E%A5%EA%B0%91%20%EA%B0%80%EC%9D%B4%EB%B2%84</t>
+  </si>
+  <si>
+    <t>강철삼국지</t>
+  </si>
+  <si>
+    <t>시대극, 역사, 초자연적 현상, 애니메이션, 액션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%EC%82%BC%EA%B5%AD%EC%A7%80</t>
+  </si>
+  <si>
+    <t>강철의 라인배럴</t>
+  </si>
+  <si>
+    <t>SF, 전쟁, 로봇, 액션, 액션, 연애 소설</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%EC%9D%98%20%EB%9D%BC%EC%9D%B8%EB%B0%B0%EB%9F%B4</t>
+  </si>
+  <si>
+    <t>강철의 연금술사</t>
+  </si>
+  <si>
+    <t>액션, 다크 판타지, 디젤펑크, 모험물, 판타지, 디젤펑크</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%EC%9D%98%20%EC%97%B0%EA%B8%88%EC%88%A0%EC%82%AC</t>
+  </si>
+  <si>
+    <t>강철 지그</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 메카, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%20%EC%A7%80%EA%B7%B8</t>
+  </si>
+  <si>
+    <t>강철천사 쿠루미</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 로맨스, 코미디 영화, 드라마, 모험, 애니메이션, 역사 드라마, 액션/어드벤처</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%EC%B2%9C%EC%82%AC%20%EC%BF%A0%EB%A3%A8%EB%AF%B8</t>
+  </si>
+  <si>
+    <t>강Q초아 잇키맨</t>
+  </si>
+  <si>
+    <t>스포츠</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%95Q%EC%B4%88%EC%95%84%20%EC%9E%87%ED%82%A4%EB%A7%A8</t>
+  </si>
+  <si>
+    <t>개골개골 마법사</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 희극, 애니메이션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%9C%EA%B3%A8%EA%B0%9C%EA%B3%A8%20%EB%A7%88%EB%B2%95%EC%82%AC</t>
+  </si>
+  <si>
+    <t>개구리 왕눈이</t>
+  </si>
+  <si>
+    <t>아동물, 어드벤처, 드라마, 일본의 애니메이션, 로맨스, 희극, 모험, 애니메이션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%9C%EA%B5%AC%EB%A6%AC%20%EC%99%95%EB%88%88%EC%9D%B4</t>
+  </si>
+  <si>
+    <t>개구리 중사 케로로</t>
+  </si>
+  <si>
+    <t>개그, 일상, 판타지, SF, 로봇, 코미디 영화, 액션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%9C%EA%B5%AC%EB%A6%AC%20%EC%A4%91%EC%82%AC%20%EC%BC%80%EB%A1%9C%EB%A1%9C</t>
+  </si>
+  <si>
+    <t>개그만화 보기 좋은 날</t>
+  </si>
+  <si>
+    <t>개그, 개그</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%9C%EA%B7%B8%EB%A7%8C%ED%99%94%20%EB%B3%B4%EA%B8%B0%20%EC%A2%8B%EC%9D%80%20%EB%82%A0</t>
+  </si>
+  <si>
+    <t>개와 가위는 쓰기 나름</t>
+  </si>
+  <si>
+    <t>코미디, 희극</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%9C%EC%99%80%20%EA%B0%80%EC%9C%84%EB%8A%94%20%EC%93%B0%EA%B8%B0%20%EB%82%98%EB%A6%84</t>
+  </si>
+  <si>
+    <t>갤러리 페이크</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%A4%EB%9F%AC%EB%A6%AC%20%ED%8E%98%EC%9D%B4%ED%81%AC</t>
+  </si>
+  <si>
+    <t>갤럭시 엔젤</t>
+  </si>
+  <si>
+    <t>연애 시뮬레이션 게임, 희극, 전략 비디오 게임, 시뮬레이션 게임</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B0%A4%EB%9F%AD%EC%8B%9C%20%EC%97%94%EC%A0%A4</t>
+  </si>
+  <si>
+    <t>거꾸로 된 파테마</t>
+  </si>
+  <si>
+    <t>애니메이션, 드라마, SF, 모험, 일본의 애니메이션, 액션, 모험, 풍자, 드라마, SF, 판타지, 애니메이션, 성장 스토리</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B0%EA%BE%B8%EB%A1%9C%20%EB%90%9C%20%ED%8C%8C%ED%85%8C%EB%A7%88</t>
+  </si>
+  <si>
+    <t>거신 고그</t>
+  </si>
+  <si>
+    <t>거대로봇, 일본의 애니메이션, SF, 로봇 아니메, 메카, 애니메이션, 액션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B0%EC%8B%A0%20%EA%B3%A0%EA%B7%B8</t>
+  </si>
+  <si>
+    <t>거인의 별</t>
+  </si>
+  <si>
+    <t>스포츠, 야구, 스포츠, 야구</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B0%EC%9D%B8%EC%9D%98%20%EB%B3%84</t>
+  </si>
+  <si>
+    <t>건강 전라계 수영부 우미쇼</t>
+  </si>
+  <si>
+    <t>러브 코미디, 수영, 러브 코미디, 수영</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B4%EA%B0%95%20%EC%A0%84%EB%9D%BC%EA%B3%84%20%EC%88%98%EC%98%81%EB%B6%80%20%EC%9A%B0%EB%AF%B8%EC%87%BC</t>
+  </si>
+  <si>
+    <t>건그레이브</t>
+  </si>
+  <si>
+    <t>3인칭 슈팅 게임</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B4%EA%B7%B8%EB%A0%88%EC%9D%B4%EB%B8%8C</t>
+  </si>
+  <si>
+    <t>건담 시리즈</t>
+  </si>
+  <si>
+    <t>거대로봇물, 거대로봇물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B4%EB%8B%B4%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
+  </si>
+  <si>
+    <t>건방진 천사</t>
+  </si>
+  <si>
+    <t>러브 코미디, 로맨틱 코미디, 액션, 코믹 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B4%EB%B0%A9%EC%A7%84%20%EC%B2%9C%EC%82%AC</t>
+  </si>
+  <si>
+    <t>건 스미스 캣츠</t>
+  </si>
+  <si>
+    <t>모험물, 범죄소설, Girls with guns</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B4%20%EC%8A%A4%EB%AF%B8%EC%8A%A4%20%EC%BA%A3%EC%B8%A0</t>
+  </si>
+  <si>
+    <t>건슬링거 걸</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 액션, 드라마, SF, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B4%EC%8A%AC%EB%A7%81%EA%B1%B0%20%EA%B1%B8</t>
+  </si>
+  <si>
+    <t>건어물 여동생! 우마루짱</t>
+  </si>
+  <si>
+    <t>일상, 성장, 코미디, 희극, 일상물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B4%EC%96%B4%EB%AC%BC%20%EC%97%AC%EB%8F%99%EC%83%9D!%20%EC%9A%B0%EB%A7%88%EB%A3%A8%EC%A7%B1</t>
+  </si>
+  <si>
+    <t>건전로봇 다이미다라</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B4%EC%A0%84%EB%A1%9C%EB%B4%87%20%EB%8B%A4%EC%9D%B4%EB%AF%B8%EB%8B%A4%EB%9D%BC</t>
+  </si>
+  <si>
+    <t>걸 프렌드(베타)</t>
+  </si>
+  <si>
+    <t>크롬</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B8%20%ED%94%84%EB%A0%8C%EB%93%9C(%EB%B2%A0%ED%83%80)</t>
+  </si>
+  <si>
+    <t>걸리시 넘버</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B8%EB%A6%AC%EC%8B%9C%20%EB%84%98%EB%B2%84</t>
+  </si>
+  <si>
+    <t>걸즈 브라보</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B1%B8%EC%A6%88%20%EB%B8%8C%EB%9D%BC%EB%B3%B4</t>
+  </si>
+  <si>
+    <t>검은 개 KUROZUKA</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EA%B0%9C%20KUROZUKA</t>
+  </si>
+  <si>
+    <t>검풍전기 베르세르크</t>
+  </si>
+  <si>
+    <t>전쟁, 액션, 판타지, 타카하시 나오히토</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%80%ED%92%8D%EC%A0%84%EA%B8%B0%20%EB%B2%A0%EB%A5%B4%EC%84%B8%EB%A5%B4%ED%81%AC</t>
+  </si>
+  <si>
+    <t>겁쟁이 페달</t>
+  </si>
+  <si>
+    <t>일곱 개의 대죄, 스포츠, 로드바이크, Sports manga (자전거 타기)</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%81%EC%9F%81%EC%9D%B4%20%ED%8E%98%EB%8B%AC</t>
+  </si>
+  <si>
+    <t>게게게의 키타로</t>
+  </si>
+  <si>
+    <t>호러 코미디, 다크 판타지, 초자연물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%8C%EA%B2%8C%EA%B2%8C%EC%9D%98%20%ED%82%A4%ED%83%80%EB%A1%9C</t>
+  </si>
+  <si>
+    <t>게드전기</t>
+  </si>
+  <si>
+    <t>애니메이션, 판타지, 일본의 애니메이션, 드라마, 모험, 판타지 영화, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%8C%EB%93%9C%EC%A0%84%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>게이머즈!</t>
+  </si>
+  <si>
+    <t>러브 코미디, 러브 코미디</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%8C%EC%9D%B4%EB%A8%B8%EC%A6%88!</t>
+  </si>
+  <si>
+    <t>게이트 - 자위대. 그의 땅에서, 이처럼 싸우며</t>
+  </si>
+  <si>
+    <t>이세계 전이, 판타지, 전쟁</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%8C%EC%9D%B4%ED%8A%B8%20-%20%EC%9E%90%EC%9C%84%EB%8C%80.%20%EA%B7%B8%EC%9D%98%20%EB%95%85%EC%97%90%EC%84%9C%2C%20%EC%9D%B4%EC%B2%98%EB%9F%BC%20%EC%8B%B8%EC%9A%B0%EB%A9%B0</t>
+  </si>
+  <si>
+    <t>게이트 키퍼즈</t>
+  </si>
+  <si>
+    <t>만화, 그래픽 노블</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%8C%EC%9D%B4%ED%8A%B8%20%ED%82%A4%ED%8D%BC%EC%A6%88</t>
+  </si>
+  <si>
+    <t>겟 백커스</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%9F%20%EB%B0%B1%EC%BB%A4%EC%8A%A4</t>
+  </si>
+  <si>
+    <t>겟타로보 시리즈</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%9F%ED%83%80%EB%A1%9C%EB%B3%B4%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
+  </si>
+  <si>
+    <t>결계사</t>
+  </si>
+  <si>
+    <t>요괴, 모험, 드라마, 성장, 모험물, 연애 소설, 초자연물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%B0%EA%B3%84%EC%82%AC</t>
+  </si>
+  <si>
+    <t>결벽남자! 아오야마군</t>
+  </si>
+  <si>
+    <t>개그, 일상, 희극, Sports manga</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%B0%EB%B2%BD%EB%82%A8%EC%9E%90!%20%EC%95%84%EC%98%A4%EC%95%BC%EB%A7%88%EA%B5%B0</t>
+  </si>
+  <si>
+    <t>경계선상의 호라이즌</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%BD%EA%B3%84%EC%84%A0%EC%83%81%EC%9D%98%20%ED%98%B8%EB%9D%BC%EC%9D%B4%EC%A6%8C/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>경계의 린네</t>
+  </si>
+  <si>
+    <t>러브 코미디, 시트콤, 로맨틱 코미디, 일상물, 초자연물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%BD%EA%B3%84%EC%9D%98%20%EB%A6%B0%EB%84%A4</t>
+  </si>
+  <si>
+    <t>경계의 저편</t>
+  </si>
+  <si>
+    <t>판타지, 로맨스, 액션, 일본의 애니메이션, 액션, 코미디 영화, 드라마, 모험, 판타지 영화, 스릴러, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%BD%EA%B3%84%EC%9D%98%20%EC%A0%80%ED%8E%B8</t>
+  </si>
+  <si>
+    <t>경녀!!!!!!!!</t>
+  </si>
+  <si>
+    <t>스포츠, 코미디, 스포츠, 코미디</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%BD%EB%85%80!!!!!!!!</t>
+  </si>
+  <si>
+    <t>견습신 비밀의 코코타마</t>
+  </si>
+  <si>
+    <t>코미디, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%AC%EC%8A%B5%EC%8B%A0%20%EB%B9%84%EB%B0%80%EC%9D%98%20%EC%BD%94%EC%BD%94%ED%83%80%EB%A7%88</t>
+  </si>
+  <si>
+    <t>고 녀석 맛나겠다</t>
+  </si>
+  <si>
+    <t>애니메이션, 모험, 로맨스, 어린이 영화, 드라마, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%20%EB%85%80%EC%84%9D%20%EB%A7%9B%EB%82%98%EA%B2%A0%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>고기동환상 건퍼레이드 마치</t>
+  </si>
+  <si>
+    <t>2000년 9월 28일</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EA%B8%B0%EB%8F%99%ED%99%98%EC%83%81%20%EA%B1%B4%ED%8D%BC%EB%A0%88%EC%9D%B4%EB%93%9C%20%EB%A7%88%EC%B9%98</t>
+  </si>
+  <si>
+    <t>고래의 아이들은 모래 위에서 노래한다</t>
+  </si>
+  <si>
+    <t>아포칼립스, 판타지, 일본의 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EB%9E%98%EC%9D%98%20%EC%95%84%EC%9D%B4%EB%93%A4%EC%9D%80%20%EB%AA%A8%EB%9E%98%20%EC%9C%84%EC%97%90%EC%84%9C%20%EB%85%B8%EB%9E%98%ED%95%9C%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>고르고13</t>
+  </si>
+  <si>
+    <t>성인극화, 일본의 애니메이션, 액션, 드라마, 스릴러, 애니메이션, 월드시네마, 범죄물, 액션/어드벤처</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EB%A5%B4%EA%B3%A013</t>
+  </si>
+  <si>
+    <t>고블린 슬레이어</t>
+  </si>
+  <si>
+    <t>다크 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EB%B8%94%EB%A6%B0%20%EC%8A%AC%EB%A0%88%EC%9D%B4%EC%96%B4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>고스트 스위퍼</t>
+  </si>
+  <si>
+    <t>액션, 희극, 초자연물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%8A%A4%ED%8A%B8%20%EC%8A%A4%EC%9C%84%ED%8D%BC</t>
+  </si>
+  <si>
+    <t>고스트 헌트</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%8A%A4%ED%8A%B8%20%ED%97%8C%ED%8A%B8</t>
+  </si>
+  <si>
+    <t>고식</t>
+  </si>
+  <si>
+    <t xml:space="preserve">추리, 로맨스, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%8B%9D</t>
+  </si>
+  <si>
+    <t>고양이 당인전 테얀데에</t>
+  </si>
+  <si>
+    <t>액션, 미하라 토도로키(美原 轟)</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%96%91%EC%9D%B4%20%EB%8B%B9%EC%9D%B8%EC%A0%84%20%ED%85%8C%EC%96%80%EB%8D%B0%EC%97%90</t>
+  </si>
+  <si>
+    <t>고양이의 보은</t>
+  </si>
+  <si>
+    <t>애니메이션, 판타지, 코미디, 어드벤쳐, 일본의 애니메이션, 애니메이션, 로맨스, 코미디 영화, 어린이 영화, 드라마, 모험, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%96%91%EC%9D%B4%EC%9D%98%20%EB%B3%B4%EC%9D%80</t>
+  </si>
+  <si>
+    <t>고왓파 5 고담</t>
+  </si>
+  <si>
+    <t>거대로봇, 보브 사쿠마(ボブ佐久間)</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%99%93%ED%8C%8C%205%20%EA%B3%A0%EB%8B%B4</t>
+  </si>
+  <si>
+    <t>고쿠도 군 만유기</t>
+  </si>
+  <si>
+    <t>판타지, 코미디, 일본의 애니메이션, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%BF%A0%EB%8F%84%20%EA%B5%B0%20%EB%A7%8C%EC%9C%A0%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>고쿠죠 ~극락원여학교 기숙사 이야기~</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%BF%A0%EC%A3%A0%20~%EA%B7%B9%EB%9D%BD%EC%9B%90%EC%97%AC%ED%95%99%EA%B5%90%20%EA%B8%B0%EC%88%99%EC%82%AC%20%EC%9D%B4%EC%95%BC%EA%B8%B0~</t>
+  </si>
+  <si>
+    <t>고쿠센</t>
+  </si>
+  <si>
+    <t>희극, 무협, 야쿠자</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%EC%BF%A0%EC%84%BC</t>
+  </si>
+  <si>
+    <t>고키챠</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A0%ED%82%A4%EC%B1%A0</t>
+  </si>
+  <si>
+    <t>곤</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/GON</t>
+  </si>
+  <si>
+    <t>골든보이</t>
+  </si>
+  <si>
+    <t>코미디 영화, 섹스 코미디, 애니메이션, 액션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A8%EB%93%A0%EB%B3%B4%EC%9D%B4(%EB%A7%8C%ED%99%94)</t>
+  </si>
+  <si>
+    <t>골든 카무이</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A8%EB%93%A0%20%EC%B9%B4%EB%AC%B4%EC%9D%B4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>골든 타임</t>
+  </si>
+  <si>
+    <t>학원, 러브 코미디, 로맨틱 코미디</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A8%EB%93%A0%20%ED%83%80%EC%9E%84(%EB%9D%BC%EC%9D%B4%ED%8A%B8%20%EB%85%B8%EB%B2%A8)</t>
+  </si>
+  <si>
+    <t>골판지 전기 시리즈</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A8%ED%8C%90%EC%A7%80%20%EC%A0%84%EA%B8%B0%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
+  </si>
+  <si>
+    <t>골프천재 탄도</t>
+  </si>
+  <si>
+    <t>스포츠, 골프, 소년만화, Sports manga</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%A8%ED%94%84%EC%B2%9C%EC%9E%AC%20%ED%83%84%EB%8F%84</t>
+  </si>
+  <si>
+    <t>공각기동대</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 사이버펑크, 액션, 애니메이션, SF, 드라마, 판타지 영화, 모험, 스릴러, 미스터리 영화, 범죄</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%B5%EA%B0%81%EA%B8%B0%EB%8F%99%EB%8C%80</t>
+  </si>
+  <si>
+    <t>공룡킹 어드벤쳐</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%B5%EB%A3%A1%ED%82%B9%20%EC%96%B4%EB%93%9C%EB%B2%A4%EC%B3%90</t>
+  </si>
+  <si>
+    <t>공상과학세계 걸리버보이</t>
+  </si>
+  <si>
     <t>판타지</t>
   </si>
   <si>
-    <t>https://namu.wiki/w/%EA%BF%88%EC%9D%84%20%EB%A8%B9%EB%8A%94%20%EB%A9%94%EB%A6%AC</t>
-  </si>
-  <si>
-    <t>가난뱅이 신이!</t>
+    <t>https://namu.wiki/w/%EA%B3%B5%EC%83%81%EA%B3%BC%ED%95%99%EC%84%B8%EA%B3%84%20%EA%B1%B8%EB%A6%AC%EB%B2%84%EB%B3%B4%EC%9D%B4</t>
+  </si>
+  <si>
+    <t>공의 경계</t>
+  </si>
+  <si>
+    <t>어반 판타지, 전기, 추리, 로맨스, 다크 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%B5%EC%9D%98%20%EA%B2%BD%EA%B3%84</t>
+  </si>
+  <si>
+    <t>공중그네</t>
+  </si>
+  <si>
+    <t>미스터리, 픽션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%B5%EC%A4%91%EA%B7%B8%EB%84%A4</t>
+  </si>
+  <si>
+    <t>공포의 물고기</t>
+  </si>
+  <si>
+    <t>공포 영화, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%B5%ED%8F%AC%EC%9D%98%20%EB%AC%BC%EA%B3%A0%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>과학닌자대 갓챠맨</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 모험, SF, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%BC%ED%95%99%EB%8B%8C%EC%9E%90%EB%8C%80%20%EA%B0%93%EC%B1%A0%EB%A7%A8</t>
+  </si>
+  <si>
+    <t>관희 챠이카</t>
+  </si>
+  <si>
+    <t>판타지, 액션, 판타지 소설</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%80%ED%9D%AC%20%EC%B1%A0%EC%9D%B4%EC%B9%B4</t>
+  </si>
+  <si>
+    <t>광란가족일기</t>
+  </si>
+  <si>
+    <t>판타지, 일본의 애니메이션, 코미디 영화, 로맨틱 코미디, SF, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%91%EB%9E%80%EA%B0%80%EC%A1%B1%EC%9D%BC%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>광속 사이버</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%91%EC%86%8D%20%EC%82%AC%EC%9D%B4%EB%B2%84</t>
+  </si>
+  <si>
+    <t>광속전신 알베가스</t>
+  </si>
+  <si>
+    <t>거대로봇, 야츠데 사부로</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%91%EC%86%8D%EC%A0%84%EC%8B%A0%20%EC%95%8C%EB%B2%A0%EA%B0%80%EC%8A%A4</t>
+  </si>
+  <si>
+    <t>괭이갈매기 울 적에</t>
+  </si>
+  <si>
+    <t xml:space="preserve">판타지, 추리, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%AD%EC%9D%B4%EA%B0%88%EB%A7%A4%EA%B8%B0%20%EC%9A%B8%20%EC%A0%81%EC%97%90/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>교향시편 유레카 세븐</t>
+  </si>
+  <si>
+    <t>거대로봇, SF, 일본의 애니메이션, 액션, 로맨스, 로봇 아니메, 드라마, 모험, 메카, 애니메이션, 모험물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B5%90%ED%96%A5%EC%8B%9C%ED%8E%B8%20%EC%9C%A0%EB%A0%88%EC%B9%B4%20%EC%84%B8%EB%B8%90</t>
+  </si>
+  <si>
+    <t>과연 사루토비</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B3%BC%EC%97%B0%20%EC%82%AC%EB%A3%A8%ED%86%A0%EB%B9%84</t>
+  </si>
+  <si>
+    <t>괴담 레스토랑</t>
+  </si>
+  <si>
+    <t>호러, 오컬트, 미스터리, 공포물, 초자연적 현상</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%B4%EB%8B%B4%20%EB%A0%88%EC%8A%A4%ED%86%A0%EB%9E%91</t>
+  </si>
+  <si>
+    <t>괴도 조커</t>
+  </si>
+  <si>
+    <t>모험물, 희극, 미스터리</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%B4%EB%8F%84%20%EC%A1%B0%EC%BB%A4</t>
+  </si>
+  <si>
+    <t>괴롭히지 말아요, 나가토로 양</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일상, 러브 코미디, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%B4%EB%A1%AD%ED%9E%88%EC%A7%80%20%EB%A7%90%EC%95%84%EC%9A%94%2C%20%EB%82%98%EA%B0%80%ED%86%A0%EB%A1%9C%20%EC%96%91</t>
+  </si>
+  <si>
+    <t>괴물군</t>
+  </si>
+  <si>
+    <t>코미디 드라마, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%B4%EB%AC%BC%EA%B5%B0</t>
+  </si>
+  <si>
+    <t>괴물왕녀</t>
+  </si>
+  <si>
+    <t>호러, 다크 판타지, 호러, 다크 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%B4%EB%AC%BC%EC%99%95%EB%85%80</t>
+  </si>
+  <si>
+    <t>괴물의 아이</t>
+  </si>
+  <si>
+    <t>액션, 모험, 판타지 영화, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%B4%EB%AC%BC%EC%9D%98%20%EC%95%84%EC%9D%B4</t>
+  </si>
+  <si>
+    <t>괴짜가족</t>
+  </si>
+  <si>
+    <t xml:space="preserve">개그, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%B4%EC%A7%9C%EA%B0%80%EC%A1%B1</t>
+  </si>
+  <si>
+    <t>괴 ~아야카시~</t>
+  </si>
+  <si>
+    <t>호러, 일본의 애니메이션, 공포 영화, 미스터리, 공포물, 애니메이션, 초자연물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B4%B4%20~%EC%95%84%EC%95%BC%EC%B9%B4%EC%8B%9C~</t>
+  </si>
+  <si>
+    <t>귀를 기울이면</t>
+  </si>
+  <si>
+    <t>애니메이션, 드라마</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EB%A5%BC%20%EA%B8%B0%EC%9A%B8%EC%9D%B4%EB%A9%B4</t>
+  </si>
+  <si>
+    <t>귀참</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EC%B0%B8</t>
+  </si>
+  <si>
+    <t>귀멸의 칼날</t>
+  </si>
+  <si>
+    <t>시대극, 액션, 모험물, 다크 판타지, 무협</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EB%A9%B8%EC%9D%98%20%EC%B9%BC%EB%82%A0(%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98%201%EA%B8%B0)</t>
+  </si>
+  <si>
+    <t>귀멸의 칼날: 유곽 편</t>
+  </si>
+  <si>
+    <t>시대극, 액션, 고토게 코요하루</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EB%A9%B8%EC%9D%98%20%EC%B9%BC%EB%82%A0:%20%EC%9C%A0%EA%B3%BD%20%ED%8E%B8</t>
+  </si>
+  <si>
+    <t>귀여우면 변태라도 좋아해 주실 수 있나요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">러브 코미디, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EC%97%AC%EC%9A%B0%EB%A9%B4%20%EB%B3%80%ED%83%9C%EB%9D%BC%EB%8F%84%20%EC%A2%8B%EC%95%84%ED%95%B4%20%EC%A3%BC%EC%8B%A4%20%EC%88%98%20%EC%9E%88%EB%82%98%EC%9A%94%3F</t>
+  </si>
+  <si>
+    <t>구구레 코쿠리상</t>
+  </si>
+  <si>
+    <t>코미디, 판타지, 코미디, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B5%AC%EA%B5%AC%EB%A0%88%20%EC%BD%94%EC%BF%A0%EB%A6%AC%EC%83%81</t>
+  </si>
+  <si>
+    <t>구름의 저편, 약속의 장소</t>
+  </si>
+  <si>
+    <t>애니메이션, 로맨스, SF, 애니메이션, 로맨스, SF</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B5%AC%EB%A6%84%EC%9D%98%20%EC%A0%80%ED%8E%B8%2C%20%EC%95%BD%EC%86%8D%EC%9D%98%20%EC%9E%A5%EC%86%8C</t>
+  </si>
+  <si>
+    <t>구름처럼 바람처럼</t>
+  </si>
+  <si>
+    <t>코미디 영화, 드라마, 시대물, Abstract animation</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B5%AC%EB%A6%84%EC%B2%98%EB%9F%BC%20%EB%B0%94%EB%9E%8C%EC%B2%98%EB%9F%BC</t>
+  </si>
+  <si>
+    <t>구명전사 제노사이버</t>
+  </si>
+  <si>
+    <t>고어, 액션, 바이오펑크, ARTMIC</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B5%AC%EB%AA%85%EC%A0%84%EC%82%AC%20%EC%A0%9C%EB%85%B8%EC%82%AC%EC%9D%B4%EB%B2%84</t>
+  </si>
+  <si>
+    <t>구슬동자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">배틀, 액션, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B5%AC%EC%8A%AC%EB%8F%99%EC%9E%90</t>
+  </si>
+  <si>
+    <t>구인사가</t>
+  </si>
+  <si>
+    <t>판타지, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B5%AC%EC%9D%B8%EC%82%AC%EA%B0%80</t>
+  </si>
+  <si>
+    <t>귀가부 활동 기록</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EA%B0%80%EB%B6%80%20%ED%99%9C%EB%8F%99%20%EA%B8%B0%EB%A1%9D</t>
+  </si>
+  <si>
+    <t>귀등의 섬</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EB%93%B1%EC%9D%98%20%EC%84%AC</t>
+  </si>
+  <si>
+    <t>귀부 시리즈</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EB%B6%80%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
+  </si>
+  <si>
+    <t>귀신전</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 액션, 모험, SF, 판타지, 역사허구물, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%80%EC%8B%A0%EC%A0%84</t>
+  </si>
+  <si>
+    <t>그것이 성우!</t>
+  </si>
+  <si>
+    <t>희극, 일상물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EA%B2%83%EC%9D%B4%20%EC%84%B1%EC%9A%B0!</t>
+  </si>
+  <si>
+    <t>그날 본 꽃의 이름을 우리는 아직 모른다</t>
+  </si>
+  <si>
+    <t>청춘, 성장, 드라마, 일본의 애니메이션, 일상물, 로맨스, 드라마, 비극, 애니메이션, 성장 스토리, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%82%A0%20%EB%B3%B8%20%EA%BD%83%EC%9D%98%20%EC%9D%B4%EB%A6%84%EC%9D%84%20%EC%9A%B0%EB%A6%AC%EB%8A%94%20%EC%95%84%EC%A7%81%20%EB%AA%A8%EB%A5%B8%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>그 남자! 그 여자!</t>
+  </si>
+  <si>
+    <t>순정만화, 만화, 픽션, 그래픽 노블</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%20%EB%82%A8%EC%9E%90!%20%EA%B7%B8%20%EC%97%AC%EC%9E%90!</t>
+  </si>
+  <si>
+    <t>그녀와 그녀의 고양이</t>
+  </si>
+  <si>
+    <t>애니메이션, 일본의 애니메이션, 단편, 드라마, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%85%80%EC%99%80%20%EA%B7%B8%EB%85%80%EC%9D%98%20%EA%B3%A0%EC%96%91%EC%9D%B4</t>
+  </si>
+  <si>
+    <t>그녀의 플래그가 꺾이면</t>
+  </si>
+  <si>
+    <t>하렘, 로맨틱 코미디</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%85%80%EC%9D%98%20%ED%94%8C%EB%9E%98%EA%B7%B8%EA%B0%80%20%EA%BA%BE%EC%9D%B4%EB%A9%B4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>그늘에서 지킨다!</t>
+  </si>
+  <si>
+    <t>학원, 러브 코미디, 하렘, 닌자, 일본의 애니메이션, 하렘, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%8A%98%EC%97%90%EC%84%9C%20%EC%A7%80%ED%82%A8%EB%8B%A4!</t>
+  </si>
+  <si>
+    <t>그대가 바라는 영원</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%8C%80%EA%B0%80%20%EB%B0%94%EB%9D%BC%EB%8A%94%20%EC%98%81%EC%9B%90</t>
+  </si>
+  <si>
+    <t>그대들, 어떻게 살 것인가</t>
+  </si>
+  <si>
+    <t>청소년 문학</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%8C%80%EB%93%A4%2C%20%EC%96%B4%EB%96%BB%EA%B2%8C%20%EC%82%B4%20%EA%B2%83%EC%9D%B8%EA%B0%80</t>
+  </si>
+  <si>
+    <t>그라비테이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%9D%BC%EB%B9%84%ED%85%8C%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>그랑블루 판타지</t>
+  </si>
+  <si>
+    <t>컴퓨터 롤플레잉 게임</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%91%EB%B8%94%EB%A3%A8%20%ED%8C%90%ED%83%80%EC%A7%80</t>
+  </si>
+  <si>
+    <t>그랑크레스트 전기</t>
+  </si>
+  <si>
+    <t>판타지, 전기, 액션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%91%ED%81%AC%EB%A0%88%EC%8A%A4%ED%8A%B8%20%EC%A0%84%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>그러나 죄인은 용과 춤춘다</t>
+  </si>
+  <si>
+    <t>다크 판타지, 사이버펑크, 모험, 배틀</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%9F%AC%EB%82%98%20%EC%A3%84%EC%9D%B8%EC%9D%80%20%EC%9A%A9%EA%B3%BC%20%EC%B6%A4%EC%B6%98%EB%8B%A4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>그럼에도 세상은 아름답다</t>
+  </si>
+  <si>
+    <t>판타지, 순정만화, 만화</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%9F%BC%EC%97%90%EB%8F%84%20%EC%84%B8%EC%83%81%EC%9D%80%20%EC%95%84%EB%A6%84%EB%8B%B5%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>그래도 마을은 돌아간다</t>
+  </si>
+  <si>
+    <t>일상, 개그, 희극, 일상물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%98%EB%8F%84%20%EB%A7%88%EC%9D%84%EC%9D%80%20%EB%8F%8C%EC%95%84%EA%B0%84%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>그래서 나는 H를 할 수 없다</t>
+  </si>
+  <si>
+    <t>학원, 판타지, 에로, 코미디, SF, 섹스 코미디, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%98%EC%84%9C%20%EB%82%98%EB%8A%94%20H%EB%A5%BC%20%ED%95%A0%20%EC%88%98%20%EC%97%86%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>그레고리 호러쇼</t>
+  </si>
+  <si>
+    <t>공포 영화, 공포물, 방송 코미디, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%A0%88%EA%B3%A0%EB%A6%AC%20%ED%98%B8%EB%9F%AC%EC%87%BC</t>
+  </si>
+  <si>
+    <t>그래플러 바키</t>
+  </si>
+  <si>
+    <t>격투, 무협</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%98%ED%94%8C%EB%9F%AC%20%EB%B0%94%ED%82%A4</t>
+  </si>
+  <si>
+    <t>그레너디어(만화)</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%A0%88%EB%84%88%EB%94%94%EC%96%B4(%EB%A7%8C%ED%99%94)</t>
+  </si>
+  <si>
+    <t>그레이트 마징가</t>
+  </si>
+  <si>
+    <t>거대로봇, 일본의 애니메이션, 액션, 로봇 아니메, 메카, 모험, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%A0%88%EC%9D%B4%ED%8A%B8%20%EB%A7%88%EC%A7%95%EA%B0%80</t>
+  </si>
+  <si>
+    <t>그로이저X</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 로봇 아니메, 메카, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%A1%9C%EC%9D%B4%EC%A0%80X</t>
+  </si>
+  <si>
+    <t>그리자이아의 과실</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로맨스 / 하렘, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%A6%AC%EC%9E%90%EC%9D%B4%EC%95%84%EC%9D%98%20%EA%B3%BC%EC%8B%A4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>그 여름에서 기다릴게</t>
+  </si>
+  <si>
+    <t>SF, 드라마, 로맨스, 일본의 애니메이션, 드라마, 로맨틱 코미디, SF, 일상물, 코미디 드라마, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%20%EC%97%AC%EB%A6%84%EC%97%90%EC%84%9C%20%EA%B8%B0%EB%8B%A4%EB%A6%B4%EA%B2%8C</t>
+  </si>
+  <si>
+    <t>극상생도회</t>
+  </si>
+  <si>
+    <t>학원, 코미디, 일본의 애니메이션, 코미디 영화, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B9%EC%83%81%EC%83%9D%EB%8F%84%ED%9A%8C</t>
+  </si>
+  <si>
+    <t>극흑의 브룬힐데</t>
+  </si>
+  <si>
+    <t>SF, 다크 판타지, 액션, 다크 판타지, 미스터리, SF</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B9%ED%9D%91%EC%9D%98%20%EB%B8%8C%EB%A3%AC%ED%9E%90%EB%8D%B0</t>
+  </si>
+  <si>
+    <t>근육맨</t>
+  </si>
+  <si>
+    <t>프로레슬링, 배틀, 개그, 액션, 희극, Sports manga</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%BC%EC%9C%A1%EB%A7%A8</t>
+  </si>
+  <si>
+    <t>금붕어 주의보</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%88%EB%B6%95%EC%96%B4%20%EC%A3%BC%EC%9D%98%EB%B3%B4</t>
+  </si>
+  <si>
+    <t>금빛 모자이크</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%88%EB%B9%9B%20%EB%AA%A8%EC%9E%90%EC%9D%B4%ED%81%AC/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>금색의 갓슈</t>
+  </si>
+  <si>
+    <t>판타지, 소년만화, 모험물, 코믹 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%88%EC%83%89%EC%9D%98%20%EA%B0%93%EC%8A%88</t>
+  </si>
+  <si>
+    <t>금색의 코르다</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%88%EC%83%89%EC%9D%98%20%EC%BD%94%EB%A5%B4%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>글라스립</t>
+  </si>
+  <si>
+    <t>드라마, 로맨스, 일상물, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%80%EB%9D%BC%EC%8A%A4%EB%A6%BD</t>
+  </si>
+  <si>
+    <t>기갑계 가리안</t>
+  </si>
+  <si>
+    <t>거대로봇, 타카하시 료스케</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%EA%B3%84%20%EA%B0%80%EB%A6%AC%EC%95%88</t>
+  </si>
+  <si>
+    <t>기갑엽병 메로우링크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">칸다 타케유키, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%EC%97%BD%EB%B3%91%20%EB%A9%94%EB%A1%9C%EC%9A%B0%EB%A7%81%ED%81%AC</t>
+  </si>
+  <si>
+    <t>기갑전기 드라고나</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거대로봇물, 리얼로봇물, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%EC%A0%84%EA%B8%B0%20%EB%93%9C%EB%9D%BC%EA%B3%A0%EB%82%98</t>
+  </si>
+  <si>
+    <t>기갑창세기 모스피다</t>
+  </si>
+  <si>
+    <t>거대로봇, 후지 TV 타츠노코 프로덕션 애니메 프렌드(アニメフレンド)</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%EC%B0%BD%EC%84%B8%EA%B8%B0%20%EB%AA%A8%EC%8A%A4%ED%94%BC%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>기갑함대 다이라가XV</t>
+  </si>
+  <si>
+    <t>거대로봇, 일본의 애니메이션, 메카, 로봇 아니메</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%ED%95%A8%EB%8C%80%20%EB%8B%A4%EC%9D%B4%EB%9D%BC%EA%B0%80XV</t>
+  </si>
+  <si>
+    <t>기교기전 히오우전기</t>
+  </si>
+  <si>
+    <t>거대로봇, 오오가미 요이치(大神洋一)</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EA%B5%90%EA%B8%B0%EC%A0%84%20%ED%9E%88%EC%98%A4%EC%9A%B0%EC%A0%84%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>기교소녀는 상처받지 않아</t>
+  </si>
+  <si>
+    <t>학원 배틀, 판타지, 액션, 판타지, 하렘</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EA%B5%90%EC%86%8C%EB%85%80%EB%8A%94%20%EC%83%81%EC%B2%98%EB%B0%9B%EC%A7%80%20%EC%95%8A%EC%95%84</t>
+  </si>
+  <si>
+    <t>기동경찰 패트레이버</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 액션, 드라마, SF, 미스터리, 스릴러, 미스터리 영화, 애니메이션, 범죄물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EA%B2%BD%EC%B0%B0%20%ED%8C%A8%ED%8A%B8%EB%A0%88%EC%9D%B4%EB%B2%84</t>
+  </si>
+  <si>
+    <t>기동경찰 패트레이버 극장판</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 액션, 전쟁, 드라마, SF, 스릴러, 서스펜스, 리얼로봇, 미스터리 영화, 애니메이션, 테크누아르</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EA%B2%BD%EC%B0%B0%20%ED%8C%A8%ED%8A%B8%EB%A0%88%EC%9D%B4%EB%B2%84%20%EA%B7%B9%EC%9E%A5%ED%8C%90</t>
+  </si>
+  <si>
+    <t>기동경찰 패트레이버 극장판2</t>
+  </si>
+  <si>
+    <t>오시이 마모루, 일본의 애니메이션, 액션, 전쟁, 드라마, SF, 스릴러, 서스펜스, 리얼로봇, 미스터리 영화, 애니메이션, 테크누아르</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EA%B2%BD%EC%B0%B0%20%ED%8C%A8%ED%8A%B8%EB%A0%88%EC%9D%B4%EB%B2%84%20%EA%B7%B9%EC%9E%A5%ED%8C%902</t>
+  </si>
+  <si>
+    <t>기동전사 건담 시리즈</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EC%A0%84%EC%82%AC%20%EA%B1%B4%EB%8B%B4%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
+  </si>
+  <si>
+    <t>기동전사 건담씨</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EC%A0%84%EC%82%AC%20%EA%B1%B4%EB%8B%B4%EC%94%A8</t>
+  </si>
+  <si>
+    <t>기동전함 나데시코</t>
+  </si>
+  <si>
+    <t>밀리터리 SF, 스페이스 오페라, 거대로봇, 일본의 애니메이션, 코미디 영화, 희극, 로봇 아니메, SF, 애니메이션, 스페이스 오페라</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EC%A0%84%ED%95%A8%20%EB%82%98%EB%8D%B0%EC%8B%9C%EC%BD%94</t>
+  </si>
+  <si>
+    <t>기동천사 엔젤릭 레이어</t>
+  </si>
+  <si>
+    <t>일본의 애니메이션, 코미디 영화, 드라마, 애니메이션, 액션, 모험물, 공상과학 코미디, 액션/어드벤처</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EC%B2%9C%EC%82%AC%20%EC%97%94%EC%A0%A4%EB%A6%AD%20%EB%A0%88%EC%9D%B4%EC%96%B4</t>
+  </si>
+  <si>
+    <t>기분 나쁜 모노노케안</t>
+  </si>
+  <si>
+    <t>요괴, 코미디, 요괴, 코미디</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%B6%84%20%EB%82%98%EC%81%9C%20%EB%AA%A8%EB%85%B8%EB%85%B8%EC%BC%80%EC%95%88</t>
+  </si>
+  <si>
+    <t>기생수 세이의 격률</t>
+  </si>
+  <si>
+    <t>호러, SF, 이와아키 히토시</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EC%83%9D%EC%88%98%20%EC%84%B8%EC%9D%B4%EC%9D%98%20%EA%B2%A9%EB%A5%A0</t>
+  </si>
+  <si>
+    <t>기수신세기 조이드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거대로봇, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EC%88%98%EC%8B%A0%EC%84%B8%EA%B8%B0%20%EC%A1%B0%EC%9D%B4%EB%93%9C</t>
+  </si>
+  <si>
+    <t>기신대전 기간틱 포뮬러</t>
+  </si>
+  <si>
+    <t>거대로봇, 24분</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EC%8B%A0%EB%8C%80%EC%A0%84%20%EA%B8%B0%EA%B0%84%ED%8B%B1%20%ED%8F%AC%EB%AE%AC%EB%9F%AC</t>
+  </si>
+  <si>
+    <t>기신병단</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EC%8B%A0%EB%B3%91%EB%8B%A8</t>
+  </si>
+  <si>
+    <t>기신포후 데몬베인</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EC%8B%A0%ED%8F%AC%ED%9B%84%20%EB%8D%B0%EB%AA%AC%EB%B2%A0%EC%9D%B8</t>
+  </si>
+  <si>
+    <t>기어와라! 냐루코 양</t>
+  </si>
+  <si>
+    <t>SF, 판타지, 러브 코미디, 하렘, 로맨틱 코미디, SF</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EC%96%B4%EC%99%80%EB%9D%BC!%20%EB%83%90%EB%A3%A8%EC%BD%94%20%EC%96%91</t>
+  </si>
+  <si>
+    <t>기어전사 덴도</t>
+  </si>
+  <si>
+    <t>야타테 하지메</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/GEAR%EC%A0%84%EC%82%AC%20%EB%8D%B4%EB%8F%84</t>
+  </si>
+  <si>
+    <t>기프트</t>
+  </si>
+  <si>
+    <t>POP, 포크</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/Gift</t>
+  </si>
+  <si>
+    <t>길모퉁이 마족</t>
+  </si>
+  <si>
+    <t>초자연물</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B8%EB%AA%A8%ED%89%81%EC%9D%B4%20%EB%A7%88%EC%A1%B1/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
+  </si>
+  <si>
+    <t>길 잃은 고양이 오버런!</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B8%20%EC%9E%83%EC%9D%80%20%EA%B3%A0%EC%96%91%EC%9D%B4%20%EC%98%A4%EB%B2%84%EB%9F%B0!</t>
+  </si>
+  <si>
+    <t>길가메쉬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF, 다크 판타지, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B8%EA%B0%80%EB%A9%94%EC%89%AC(%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98)</t>
+  </si>
+  <si>
+    <t>길티 크라운</t>
+  </si>
+  <si>
+    <t>SF, 다크 판타지, 사이버펑크, 일본의 애니메이션, 드라마, 디스토피아, SF, 액션, 메카, 애니메이션, 과학 판타지, 정치 스릴러</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B8%ED%8B%B0%20%ED%81%AC%EB%9D%BC%EC%9A%B4</t>
+  </si>
+  <si>
+    <t>김의 십자가</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B9%80%EC%9D%98%20%EC%8B%AD%EC%9E%90%EA%B0%80</t>
+  </si>
+  <si>
+    <t>꼬마마법사 레미</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마법소녀, 성장, 코미디, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BC%AC%EB%A7%88%EB%A7%88%EB%B2%95%EC%82%AC%20%EB%A0%88%EB%AF%B8</t>
+  </si>
+  <si>
+    <t>꼬마숙녀 치에</t>
+  </si>
+  <si>
+    <t>코미디 영화, 어린이 영화, 애니메이션</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BC%AC%EB%A7%88%EC%88%99%EB%85%80%20%EC%B9%98%EC%97%90</t>
+  </si>
+  <si>
+    <t>꼬마자동차 붕붕</t>
+  </si>
+  <si>
+    <t>모험, 가족, 판타지, 일본의 애니메이션, 가족, 어린이 영화, 모험, 애니메이션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BC%AC%EB%A7%88%EC%9E%90%EB%8F%99%EC%B0%A8%20%EB%B6%95%EB%B6%95</t>
+  </si>
+  <si>
+    <t>꾀돌이 삼총사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험, </t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BE%80%EB%8F%8C%EC%9D%B4%20%EC%82%BC%EC%B4%9D%EC%82%AC</t>
+  </si>
+  <si>
+    <t>꽃이 피는 첫걸음</t>
+  </si>
+  <si>
+    <t>드라마, 일본의 애니메이션, 로맨스, 일상물, 코미디 영화, 드라마, 로맨틱 코미디, 애니메이션, 성장 스토리</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BD%83%EC%9D%B4%20%ED%94%BC%EB%8A%94%20%EC%B2%AB%EA%B1%B8%EC%9D%8C</t>
+  </si>
+  <si>
+    <t>꾸러기 수비대</t>
+  </si>
+  <si>
+    <t>히어로, 일본의 애니메이션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BE%B8%EB%9F%AC%EA%B8%B0%20%EC%88%98%EB%B9%84%EB%8C%80</t>
+  </si>
+  <si>
+    <t>꿈의 사도</t>
+  </si>
+  <si>
+    <t>판타지, 일본의 애니메이션, 모험, 청년 만화, 애니메이션, 액션, 액션/어드벤처</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BF%88%EC%9D%98%20%EC%82%AC%EB%8F%84</t>
+  </si>
+  <si>
+    <t>꿈의 크레용 왕국</t>
+  </si>
+  <si>
+    <t>동화, 판타지, 일본의 애니메이션, 동화, 애니메이션, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BF%88%EC%9D%98%20%ED%81%AC%EB%A0%88%EC%9A%A9%20%EC%99%95%EA%B5%AD</t>
+  </si>
+  <si>
+    <t>꿈빛 파티시엘</t>
+  </si>
+  <si>
+    <t>순정, 학원, 요리, 성장, 감성, 요리 만화</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BF%88%EB%B9%9B%20%ED%8C%8C%ED%8B%B0%EC%8B%9C%EC%97%98</t>
+  </si>
+  <si>
+    <t>꿈별의 버튼노즈</t>
+  </si>
+  <si>
+    <t>가족, 어드벤처, 판타지, 판타지</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%BF%88%EB%B3%84%EC%9D%98%20%EB%B2%84%ED%8A%BC%EB%85%B8%EC%A6%88</t>
+  </si>
+  <si>
+    <t>코미디 영화, 드라마, 시대물</t>
+  </si>
+  <si>
+    <t>고어, 액션, 바이오펑크</t>
+  </si>
+  <si>
+    <t>시대극, 액션</t>
+  </si>
+  <si>
+    <t>프로레슬링, 배틀, 개그, 액션, 희극</t>
+  </si>
+  <si>
+    <t>로맨스 / 하렘</t>
+  </si>
+  <si>
+    <t>로맨스, 하렘</t>
+  </si>
+  <si>
+    <t>거대로봇</t>
+  </si>
+  <si>
+    <t>거대로봇물, 리얼로봇물</t>
+  </si>
+  <si>
+    <t>호러, SF</t>
+  </si>
+  <si>
+    <t>SF, 다크 판타지</t>
+  </si>
+  <si>
+    <t>모험</t>
+  </si>
+  <si>
+    <t>액션</t>
+  </si>
+  <si>
+    <t>개그, 일상, 희극</t>
+  </si>
+  <si>
+    <t>일곱 개의 대죄, 스포츠, 로드바이크</t>
+  </si>
+  <si>
+    <t>스포츠, 골프, 소년만화</t>
+  </si>
+  <si>
+    <t>추리, 로맨스</t>
+  </si>
+  <si>
+    <t>판타지, 추리</t>
+  </si>
+  <si>
+    <t>SF, 로맨스, 모험, SF, 애니메이션, 액션</t>
+  </si>
+  <si>
+    <t>모험물, 범죄소설</t>
+  </si>
+  <si>
+    <t>전쟁, 액션, 판타지</t>
+  </si>
+  <si>
+    <t>일상, 러브 코미디</t>
   </si>
   <si>
     <t>개그</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EB%82%9C%EB%B1%85%EC%9D%B4%20%EC%8B%A0%EC%9D%B4!</t>
-  </si>
-  <si>
-    <t>가르쳐줘! 갸루코쨩</t>
-  </si>
-  <si>
-    <t>학원, 코미디, 일상</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EB%A5%B4%EC%B3%90%EC%A4%98!%20%EA%B0%B8%EB%A3%A8%EC%BD%94%EC%A8%A9</t>
-  </si>
-  <si>
-    <t>가면의 메이드가이</t>
-  </si>
-  <si>
-    <t>코미디, 배틀</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EB%A9%B4%EC%9D%98%20%EB%A9%94%EC%9D%B4%EB%93%9C%EA%B0%80%EC%9D%B4</t>
-  </si>
-  <si>
-    <t>가부키부!</t>
-  </si>
-  <si>
-    <t>가부키, 학원물</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EB%B6%80%ED%82%A4%EB%B6%80!</t>
-  </si>
-  <si>
-    <t>가브릴 드롭아웃</t>
-  </si>
-  <si>
-    <t>판타지, 일상, 개그, 드라마, 천사, 악마</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EB%B8%8C%EB%A6%B4%20%EB%93%9C%EB%A1%AD%EC%95%84%EC%9B%83/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>가사라키</t>
-  </si>
-  <si>
-    <t>거대로봇</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EC%82%AC%EB%9D%BC%ED%82%A4</t>
-  </si>
-  <si>
-    <t>가시나무왕</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EC%8B%9C%EB%82%98%EB%AC%B4%EC%99%95</t>
-  </si>
-  <si>
-    <t>가이킹 LEGEND OF DAIKU-MARYU</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EC%9D%B4%ED%82%B9%20LEGEND%20OF%20DAIKU-MARYU</t>
-  </si>
-  <si>
-    <t>가자! 우주전함 야마모토 요코</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EC%9E%90!%20%EC%9A%B0%EC%A3%BC%EC%A0%84%ED%95%A8%20%EC%95%BC%EB%A7%88%EB%AA%A8%ED%86%A0%20%EC%9A%94%EC%BD%94</t>
-  </si>
-  <si>
-    <t>가정교사 히트맨 REBORN!</t>
-  </si>
-  <si>
-    <t>능력자 배틀, 전기, 블랙 코미디, 소년만화</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%80%EC%A0%95%EA%B5%90%EC%82%AC%20%ED%9E%88%ED%8A%B8%EB%A7%A8%20REBORN!</t>
-  </si>
-  <si>
-    <t>간츠</t>
-  </si>
-  <si>
-    <t>SF, 청년만화</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%84%EC%B8%A0</t>
-  </si>
-  <si>
-    <t>갈릴레이 돈나</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%88%EB%A6%B4%EB%A0%88%EC%9D%B4%20%EB%8F%88%EB%82%98</t>
-  </si>
-  <si>
-    <t>감바의 모험</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%90%EB%B0%94%EC%9D%98%20%EB%AA%A8%ED%97%98</t>
-  </si>
-  <si>
-    <t>감옥학원</t>
-  </si>
-  <si>
-    <t>그라제니, 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%90%EC%98%A5%ED%95%99%EC%9B%90</t>
-  </si>
-  <si>
-    <t>갑작스레! 고양이 나라 바니팔 위트</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%91%EC%9E%91%EC%8A%A4%EB%A0%88!%20%EA%B3%A0%EC%96%91%EC%9D%B4%20%EB%82%98%EB%9D%BC%20%EB%B0%94%EB%8B%88%ED%8C%94%20%EC%9C%84%ED%8A%B8</t>
-  </si>
-  <si>
-    <t>갑충왕자 무시킹</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%91%EC%B6%A9%EC%99%95%EC%9E%90%20%EB%AC%B4%EC%8B%9C%ED%82%B9</t>
-  </si>
-  <si>
-    <t>갑철성의 카바네리</t>
-  </si>
-  <si>
-    <t>좀비 아포칼립스, 스팀펑크</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%91%EC%B2%A0%EC%84%B1%EC%9D%98%20%EC%B9%B4%EB%B0%94%EB%84%A4%EB%A6%AC</t>
-  </si>
-  <si>
-    <t>강각의 레기오스</t>
-  </si>
-  <si>
-    <t>학원 배틀, 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%95%EA%B0%81%EC%9D%98%20%EB%A0%88%EA%B8%B0%EC%98%A4%EC%8A%A4</t>
-  </si>
-  <si>
-    <t>강식장갑 가이버</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%95%EC%8B%9D%EC%9E%A5%EA%B0%91%20%EA%B0%80%EC%9D%B4%EB%B2%84</t>
-  </si>
-  <si>
-    <t>강철삼국지</t>
-  </si>
-  <si>
-    <t>시대극</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%EC%82%BC%EA%B5%AD%EC%A7%80</t>
-  </si>
-  <si>
-    <t>강철의 라인배럴</t>
-  </si>
-  <si>
-    <t>SF, 전쟁, 로봇, 액션</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%EC%9D%98%20%EB%9D%BC%EC%9D%B8%EB%B0%B0%EB%9F%B4</t>
-  </si>
-  <si>
-    <t>강철의 연금술사</t>
-  </si>
-  <si>
-    <t>액션, 다크 판타지, 디젤펑크</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%EC%9D%98%20%EC%97%B0%EA%B8%88%EC%88%A0%EC%82%AC</t>
-  </si>
-  <si>
-    <t>강철 지그</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%20%EC%A7%80%EA%B7%B8</t>
-  </si>
-  <si>
-    <t>강철천사 쿠루미</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%95%EC%B2%A0%EC%B2%9C%EC%82%AC%20%EC%BF%A0%EB%A3%A8%EB%AF%B8</t>
-  </si>
-  <si>
-    <t>강Q초아 잇키맨</t>
-  </si>
-  <si>
-    <t>스포츠</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%95Q%EC%B4%88%EC%95%84%20%EC%9E%87%ED%82%A4%EB%A7%A8</t>
-  </si>
-  <si>
-    <t>개골개골 마법사</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%9C%EA%B3%A8%EA%B0%9C%EA%B3%A8%20%EB%A7%88%EB%B2%95%EC%82%AC</t>
-  </si>
-  <si>
-    <t>개구리 왕눈이</t>
-  </si>
-  <si>
-    <t>아동물, 어드벤처, 드라마</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%9C%EA%B5%AC%EB%A6%AC%20%EC%99%95%EB%88%88%EC%9D%B4</t>
-  </si>
-  <si>
-    <t>개구리 중사 케로로</t>
-  </si>
-  <si>
-    <t>개그, 일상, 판타지, SF, 로봇</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%9C%EA%B5%AC%EB%A6%AC%20%EC%A4%91%EC%82%AC%20%EC%BC%80%EB%A1%9C%EB%A1%9C</t>
-  </si>
-  <si>
-    <t>개그만화 보기 좋은 날</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%9C%EA%B7%B8%EB%A7%8C%ED%99%94%20%EB%B3%B4%EA%B8%B0%20%EC%A2%8B%EC%9D%80%20%EB%82%A0</t>
-  </si>
-  <si>
-    <t>개와 가위는 쓰기 나름</t>
-  </si>
-  <si>
-    <t>코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%9C%EC%99%80%20%EA%B0%80%EC%9C%84%EB%8A%94%20%EC%93%B0%EA%B8%B0%20%EB%82%98%EB%A6%84</t>
-  </si>
-  <si>
-    <t>갤러리 페이크</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%A4%EB%9F%AC%EB%A6%AC%20%ED%8E%98%EC%9D%B4%ED%81%AC</t>
-  </si>
-  <si>
-    <t>갤럭시 엔젤</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B0%A4%EB%9F%AD%EC%8B%9C%20%EC%97%94%EC%A0%A4</t>
-  </si>
-  <si>
-    <t>거꾸로 된 파테마</t>
-  </si>
-  <si>
-    <t>애니메이션, 드라마, SF, 모험</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B0%EA%BE%B8%EB%A1%9C%20%EB%90%9C%20%ED%8C%8C%ED%85%8C%EB%A7%88</t>
-  </si>
-  <si>
-    <t>거신 고그</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B0%EC%8B%A0%20%EA%B3%A0%EA%B7%B8</t>
-  </si>
-  <si>
-    <t>거인의 별</t>
-  </si>
-  <si>
-    <t>스포츠, 야구</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B0%EC%9D%B8%EC%9D%98%20%EB%B3%84</t>
-  </si>
-  <si>
-    <t>건강 전라계 수영부 우미쇼</t>
-  </si>
-  <si>
-    <t>러브 코미디, 수영</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B4%EA%B0%95%20%EC%A0%84%EB%9D%BC%EA%B3%84%20%EC%88%98%EC%98%81%EB%B6%80%20%EC%9A%B0%EB%AF%B8%EC%87%BC</t>
-  </si>
-  <si>
-    <t>건그레이브</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B4%EA%B7%B8%EB%A0%88%EC%9D%B4%EB%B8%8C</t>
-  </si>
-  <si>
-    <t>건담 시리즈</t>
-  </si>
-  <si>
-    <t>거대로봇물</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B4%EB%8B%B4%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
-  </si>
-  <si>
-    <t>건방진 천사</t>
-  </si>
-  <si>
-    <t>러브 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B4%EB%B0%A9%EC%A7%84%20%EC%B2%9C%EC%82%AC</t>
-  </si>
-  <si>
-    <t>건 스미스 캣츠</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B4%20%EC%8A%A4%EB%AF%B8%EC%8A%A4%20%EC%BA%A3%EC%B8%A0</t>
-  </si>
-  <si>
-    <t>건슬링거 걸</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B4%EC%8A%AC%EB%A7%81%EA%B1%B0%20%EA%B1%B8</t>
-  </si>
-  <si>
-    <t>건어물 여동생! 우마루짱</t>
-  </si>
-  <si>
-    <t>일상, 성장, 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B4%EC%96%B4%EB%AC%BC%20%EC%97%AC%EB%8F%99%EC%83%9D!%20%EC%9A%B0%EB%A7%88%EB%A3%A8%EC%A7%B1</t>
-  </si>
-  <si>
-    <t>건전로봇 다이미다라</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B4%EC%A0%84%EB%A1%9C%EB%B4%87%20%EB%8B%A4%EC%9D%B4%EB%AF%B8%EB%8B%A4%EB%9D%BC</t>
-  </si>
-  <si>
-    <t>걸 프렌드(베타)</t>
-  </si>
-  <si>
-    <t>크롬</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B8%20%ED%94%84%EB%A0%8C%EB%93%9C(%EB%B2%A0%ED%83%80)</t>
-  </si>
-  <si>
-    <t>걸리시 넘버</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B8%EB%A6%AC%EC%8B%9C%20%EB%84%98%EB%B2%84</t>
-  </si>
-  <si>
-    <t>걸즈 브라보</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B1%B8%EC%A6%88%20%EB%B8%8C%EB%9D%BC%EB%B3%B4</t>
-  </si>
-  <si>
-    <t>검은 개 KUROZUKA</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EA%B0%9C%20KUROZUKA</t>
-  </si>
-  <si>
-    <t>검풍전기 베르세르크</t>
-  </si>
-  <si>
-    <t>전쟁, 액션, 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%80%ED%92%8D%EC%A0%84%EA%B8%B0%20%EB%B2%A0%EB%A5%B4%EC%84%B8%EB%A5%B4%ED%81%AC</t>
-  </si>
-  <si>
-    <t>겁쟁이 페달</t>
-  </si>
-  <si>
-    <t>일곱 개의 대죄, 스포츠, 로드바이크</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%81%EC%9F%81%EC%9D%B4%20%ED%8E%98%EB%8B%AC</t>
-  </si>
-  <si>
-    <t>게게게의 키타로</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%8C%EA%B2%8C%EA%B2%8C%EC%9D%98%20%ED%82%A4%ED%83%80%EB%A1%9C</t>
-  </si>
-  <si>
-    <t>게드전기</t>
-  </si>
-  <si>
-    <t>애니메이션, 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%8C%EB%93%9C%EC%A0%84%EA%B8%B0</t>
-  </si>
-  <si>
-    <t>게이머즈!</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%8C%EC%9D%B4%EB%A8%B8%EC%A6%88!</t>
-  </si>
-  <si>
-    <t>게이트 - 자위대. 그의 땅에서, 이처럼 싸우며</t>
-  </si>
-  <si>
-    <t>이세계 전이, 판타지, 전쟁</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%8C%EC%9D%B4%ED%8A%B8%20-%20%EC%9E%90%EC%9C%84%EB%8C%80.%20%EA%B7%B8%EC%9D%98%20%EB%95%85%EC%97%90%EC%84%9C%2C%20%EC%9D%B4%EC%B2%98%EB%9F%BC%20%EC%8B%B8%EC%9A%B0%EB%A9%B0</t>
-  </si>
-  <si>
-    <t>게이트 키퍼즈</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%8C%EC%9D%B4%ED%8A%B8%20%ED%82%A4%ED%8D%BC%EC%A6%88</t>
-  </si>
-  <si>
-    <t>겟 백커스</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%9F%20%EB%B0%B1%EC%BB%A4%EC%8A%A4</t>
-  </si>
-  <si>
-    <t>겟타로보 시리즈</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%9F%ED%83%80%EB%A1%9C%EB%B3%B4%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
-  </si>
-  <si>
-    <t>결계사</t>
-  </si>
-  <si>
-    <t>요괴, 모험, 드라마, 성장</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%B0%EA%B3%84%EC%82%AC</t>
-  </si>
-  <si>
-    <t>결벽남자! 아오야마군</t>
-  </si>
-  <si>
-    <t>개그, 일상</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%B0%EB%B2%BD%EB%82%A8%EC%9E%90!%20%EC%95%84%EC%98%A4%EC%95%BC%EB%A7%88%EA%B5%B0</t>
-  </si>
-  <si>
-    <t>경계선상의 호라이즌</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%BD%EA%B3%84%EC%84%A0%EC%83%81%EC%9D%98%20%ED%98%B8%EB%9D%BC%EC%9D%B4%EC%A6%8C/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>경계의 린네</t>
-  </si>
-  <si>
-    <t>러브 코미디, 시트콤</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%BD%EA%B3%84%EC%9D%98%20%EB%A6%B0%EB%84%A4</t>
-  </si>
-  <si>
-    <t>경계의 저편</t>
-  </si>
-  <si>
-    <t>판타지, 로맨스, 액션</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%BD%EA%B3%84%EC%9D%98%20%EC%A0%80%ED%8E%B8</t>
-  </si>
-  <si>
-    <t>경녀!!!!!!!!</t>
-  </si>
-  <si>
-    <t>스포츠, 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%BD%EB%85%80!!!!!!!!</t>
-  </si>
-  <si>
-    <t>견습신 비밀의 코코타마</t>
-  </si>
-  <si>
-    <t>코미디, 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%AC%EC%8A%B5%EC%8B%A0%20%EB%B9%84%EB%B0%80%EC%9D%98%20%EC%BD%94%EC%BD%94%ED%83%80%EB%A7%88</t>
-  </si>
-  <si>
-    <t>고 녀석 맛나겠다</t>
-  </si>
-  <si>
-    <t>애니메이션, 모험, 로맨스</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%20%EB%85%80%EC%84%9D%20%EB%A7%9B%EB%82%98%EA%B2%A0%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>고기동환상 건퍼레이드 마치</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EA%B8%B0%EB%8F%99%ED%99%98%EC%83%81%20%EA%B1%B4%ED%8D%BC%EB%A0%88%EC%9D%B4%EB%93%9C%20%EB%A7%88%EC%B9%98</t>
-  </si>
-  <si>
-    <t>고래의 아이들은 모래 위에서 노래한다</t>
-  </si>
-  <si>
-    <t>아포칼립스, 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EB%9E%98%EC%9D%98%20%EC%95%84%EC%9D%B4%EB%93%A4%EC%9D%80%20%EB%AA%A8%EB%9E%98%20%EC%9C%84%EC%97%90%EC%84%9C%20%EB%85%B8%EB%9E%98%ED%95%9C%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>고르고13</t>
-  </si>
-  <si>
-    <t>성인극화</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EB%A5%B4%EA%B3%A013</t>
-  </si>
-  <si>
-    <t>고블린 슬레이어</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EB%B8%94%EB%A6%B0%20%EC%8A%AC%EB%A0%88%EC%9D%B4%EC%96%B4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>고스트 스위퍼</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%8A%A4%ED%8A%B8%20%EC%8A%A4%EC%9C%84%ED%8D%BC</t>
-  </si>
-  <si>
-    <t>고스트 헌트</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%8A%A4%ED%8A%B8%20%ED%97%8C%ED%8A%B8</t>
-  </si>
-  <si>
-    <t>고식</t>
-  </si>
-  <si>
-    <t>추리, 로맨스</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%8B%9D</t>
-  </si>
-  <si>
-    <t>고양이 당인전 테얀데에</t>
-  </si>
-  <si>
-    <t>액션</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%96%91%EC%9D%B4%20%EB%8B%B9%EC%9D%B8%EC%A0%84%20%ED%85%8C%EC%96%80%EB%8D%B0%EC%97%90</t>
-  </si>
-  <si>
-    <t>고양이의 보은</t>
-  </si>
-  <si>
-    <t>애니메이션, 판타지, 코미디, 어드벤쳐</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%96%91%EC%9D%B4%EC%9D%98%20%EB%B3%B4%EC%9D%80</t>
-  </si>
-  <si>
-    <t>고왓파 5 고담</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%99%93%ED%8C%8C%205%20%EA%B3%A0%EB%8B%B4</t>
-  </si>
-  <si>
-    <t>고쿠도 군 만유기</t>
-  </si>
-  <si>
-    <t>판타지, 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%BF%A0%EB%8F%84%20%EA%B5%B0%20%EB%A7%8C%EC%9C%A0%EA%B8%B0</t>
-  </si>
-  <si>
-    <t>고쿠죠 ~극락원여학교 기숙사 이야기~</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%BF%A0%EC%A3%A0%20~%EA%B7%B9%EB%9D%BD%EC%9B%90%EC%97%AC%ED%95%99%EA%B5%90%20%EA%B8%B0%EC%88%99%EC%82%AC%20%EC%9D%B4%EC%95%BC%EA%B8%B0~</t>
-  </si>
-  <si>
-    <t>고쿠센</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%EC%BF%A0%EC%84%BC</t>
-  </si>
-  <si>
-    <t>고키챠</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A0%ED%82%A4%EC%B1%A0</t>
-  </si>
-  <si>
-    <t>곤</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/GON</t>
-  </si>
-  <si>
-    <t>골든보이</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A8%EB%93%A0%EB%B3%B4%EC%9D%B4(%EB%A7%8C%ED%99%94)</t>
-  </si>
-  <si>
-    <t>골든 카무이</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A8%EB%93%A0%20%EC%B9%B4%EB%AC%B4%EC%9D%B4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>골든 타임</t>
-  </si>
-  <si>
-    <t>학원, 러브 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A8%EB%93%A0%20%ED%83%80%EC%9E%84(%EB%9D%BC%EC%9D%B4%ED%8A%B8%20%EB%85%B8%EB%B2%A8)</t>
-  </si>
-  <si>
-    <t>골판지 전기 시리즈</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A8%ED%8C%90%EC%A7%80%20%EC%A0%84%EA%B8%B0%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
-  </si>
-  <si>
-    <t>골프천재 탄도</t>
-  </si>
-  <si>
-    <t>스포츠, 골프, 소년만화</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%A8%ED%94%84%EC%B2%9C%EC%9E%AC%20%ED%83%84%EB%8F%84</t>
-  </si>
-  <si>
-    <t>공각기동대</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%B5%EA%B0%81%EA%B8%B0%EB%8F%99%EB%8C%80</t>
-  </si>
-  <si>
-    <t>공룡킹 어드벤쳐</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%B5%EB%A3%A1%ED%82%B9%20%EC%96%B4%EB%93%9C%EB%B2%A4%EC%B3%90</t>
-  </si>
-  <si>
-    <t>공상과학세계 걸리버보이</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%B5%EC%83%81%EA%B3%BC%ED%95%99%EC%84%B8%EA%B3%84%20%EA%B1%B8%EB%A6%AC%EB%B2%84%EB%B3%B4%EC%9D%B4</t>
-  </si>
-  <si>
-    <t>공의 경계</t>
-  </si>
-  <si>
-    <t>어반 판타지, 전기, 추리, 로맨스</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%B5%EC%9D%98%20%EA%B2%BD%EA%B3%84</t>
-  </si>
-  <si>
-    <t>공중그네</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%B5%EC%A4%91%EA%B7%B8%EB%84%A4</t>
-  </si>
-  <si>
-    <t>공포의 물고기</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%B5%ED%8F%AC%EC%9D%98%20%EB%AC%BC%EA%B3%A0%EA%B8%B0</t>
-  </si>
-  <si>
-    <t>과학닌자대 갓챠맨</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%BC%ED%95%99%EB%8B%8C%EC%9E%90%EB%8C%80%20%EA%B0%93%EC%B1%A0%EB%A7%A8</t>
-  </si>
-  <si>
-    <t>관희 챠이카</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%80%ED%9D%AC%20%EC%B1%A0%EC%9D%B4%EC%B9%B4</t>
-  </si>
-  <si>
-    <t>광란가족일기</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%91%EB%9E%80%EA%B0%80%EC%A1%B1%EC%9D%BC%EA%B8%B0</t>
-  </si>
-  <si>
-    <t>광속 사이버</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%91%EC%86%8D%20%EC%82%AC%EC%9D%B4%EB%B2%84</t>
-  </si>
-  <si>
-    <t>광속전신 알베가스</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%91%EC%86%8D%EC%A0%84%EC%8B%A0%20%EC%95%8C%EB%B2%A0%EA%B0%80%EC%8A%A4</t>
-  </si>
-  <si>
-    <t>괭이갈매기 울 적에</t>
-  </si>
-  <si>
-    <t>판타지, 추리</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%AD%EC%9D%B4%EA%B0%88%EB%A7%A4%EA%B8%B0%20%EC%9A%B8%20%EC%A0%81%EC%97%90/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>교향시편 유레카 세븐</t>
-  </si>
-  <si>
-    <t>거대로봇, SF</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B5%90%ED%96%A5%EC%8B%9C%ED%8E%B8%20%EC%9C%A0%EB%A0%88%EC%B9%B4%20%EC%84%B8%EB%B8%90</t>
-  </si>
-  <si>
-    <t>과연 사루토비</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B3%BC%EC%97%B0%20%EC%82%AC%EB%A3%A8%ED%86%A0%EB%B9%84</t>
-  </si>
-  <si>
-    <t>괴담 레스토랑</t>
-  </si>
-  <si>
-    <t>호러, 오컬트</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%B4%EB%8B%B4%20%EB%A0%88%EC%8A%A4%ED%86%A0%EB%9E%91</t>
-  </si>
-  <si>
-    <t>괴도 조커</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%B4%EB%8F%84%20%EC%A1%B0%EC%BB%A4</t>
-  </si>
-  <si>
-    <t>괴롭히지 말아요, 나가토로 양</t>
-  </si>
-  <si>
-    <t>일상, 러브 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%B4%EB%A1%AD%ED%9E%88%EC%A7%80%20%EB%A7%90%EC%95%84%EC%9A%94%2C%20%EB%82%98%EA%B0%80%ED%86%A0%EB%A1%9C%20%EC%96%91</t>
-  </si>
-  <si>
-    <t>괴물군</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%B4%EB%AC%BC%EA%B5%B0</t>
-  </si>
-  <si>
-    <t>괴물왕녀</t>
-  </si>
-  <si>
-    <t>호러, 다크 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%B4%EB%AC%BC%EC%99%95%EB%85%80</t>
-  </si>
-  <si>
-    <t>괴물의 아이</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%B4%EB%AC%BC%EC%9D%98%20%EC%95%84%EC%9D%B4</t>
-  </si>
-  <si>
-    <t>괴짜가족</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%B4%EC%A7%9C%EA%B0%80%EC%A1%B1</t>
-  </si>
-  <si>
-    <t>괴 ~아야카시~</t>
-  </si>
-  <si>
-    <t>호러</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B4%B4%20~%EC%95%84%EC%95%BC%EC%B9%B4%EC%8B%9C~</t>
-  </si>
-  <si>
-    <t>귀를 기울이면</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EB%A5%BC%20%EA%B8%B0%EC%9A%B8%EC%9D%B4%EB%A9%B4</t>
-  </si>
-  <si>
-    <t>귀참</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EC%B0%B8</t>
-  </si>
-  <si>
-    <t>귀멸의 칼날</t>
-  </si>
-  <si>
-    <t>시대극, 액션</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EB%A9%B8%EC%9D%98%20%EC%B9%BC%EB%82%A0(%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98%201%EA%B8%B0)</t>
-  </si>
-  <si>
-    <t>귀멸의 칼날: 유곽 편</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EB%A9%B8%EC%9D%98%20%EC%B9%BC%EB%82%A0:%20%EC%9C%A0%EA%B3%BD%20%ED%8E%B8</t>
-  </si>
-  <si>
-    <t>귀여우면 변태라도 좋아해 주실 수 있나요?</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EC%97%AC%EC%9A%B0%EB%A9%B4%20%EB%B3%80%ED%83%9C%EB%9D%BC%EB%8F%84%20%EC%A2%8B%EC%95%84%ED%95%B4%20%EC%A3%BC%EC%8B%A4%20%EC%88%98%20%EC%9E%88%EB%82%98%EC%9A%94%3F</t>
-  </si>
-  <si>
-    <t>구구레 코쿠리상</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B5%AC%EA%B5%AC%EB%A0%88%20%EC%BD%94%EC%BF%A0%EB%A6%AC%EC%83%81</t>
-  </si>
-  <si>
-    <t>구름의 저편, 약속의 장소</t>
-  </si>
-  <si>
-    <t>애니메이션, 로맨스, SF</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B5%AC%EB%A6%84%EC%9D%98%20%EC%A0%80%ED%8E%B8%2C%20%EC%95%BD%EC%86%8D%EC%9D%98%20%EC%9E%A5%EC%86%8C</t>
-  </si>
-  <si>
-    <t>구름처럼 바람처럼</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B5%AC%EB%A6%84%EC%B2%98%EB%9F%BC%20%EB%B0%94%EB%9E%8C%EC%B2%98%EB%9F%BC</t>
-  </si>
-  <si>
-    <t>구명전사 제노사이버</t>
-  </si>
-  <si>
-    <t>고어, 액션, 바이오펑크</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B5%AC%EB%AA%85%EC%A0%84%EC%82%AC%20%EC%A0%9C%EB%85%B8%EC%82%AC%EC%9D%B4%EB%B2%84</t>
-  </si>
-  <si>
-    <t>구슬동자</t>
-  </si>
-  <si>
-    <t>배틀, 액션</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B5%AC%EC%8A%AC%EB%8F%99%EC%9E%90</t>
-  </si>
-  <si>
-    <t>구인사가</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B5%AC%EC%9D%B8%EC%82%AC%EA%B0%80</t>
-  </si>
-  <si>
-    <t>귀가부 활동 기록</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EA%B0%80%EB%B6%80%20%ED%99%9C%EB%8F%99%20%EA%B8%B0%EB%A1%9D</t>
-  </si>
-  <si>
-    <t>귀등의 섬</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EB%93%B1%EC%9D%98%20%EC%84%AC</t>
-  </si>
-  <si>
-    <t>귀부 시리즈</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EB%B6%80%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
-  </si>
-  <si>
-    <t>귀신전</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%80%EC%8B%A0%EC%A0%84</t>
-  </si>
-  <si>
-    <t>그것이 성우!</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EA%B2%83%EC%9D%B4%20%EC%84%B1%EC%9A%B0!</t>
-  </si>
-  <si>
-    <t>그날 본 꽃의 이름을 우리는 아직 모른다</t>
-  </si>
-  <si>
-    <t>청춘, 성장, 드라마</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%82%A0%20%EB%B3%B8%20%EA%BD%83%EC%9D%98%20%EC%9D%B4%EB%A6%84%EC%9D%84%20%EC%9A%B0%EB%A6%AC%EB%8A%94%20%EC%95%84%EC%A7%81%20%EB%AA%A8%EB%A5%B8%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>그 남자! 그 여자!</t>
-  </si>
-  <si>
-    <t>순정만화</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%20%EB%82%A8%EC%9E%90!%20%EA%B7%B8%20%EC%97%AC%EC%9E%90!</t>
-  </si>
-  <si>
-    <t>그녀와 그녀의 고양이</t>
-  </si>
-  <si>
-    <t>애니메이션</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%85%80%EC%99%80%20%EA%B7%B8%EB%85%80%EC%9D%98%20%EA%B3%A0%EC%96%91%EC%9D%B4</t>
-  </si>
-  <si>
-    <t>그녀의 플래그가 꺾이면</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%85%80%EC%9D%98%20%ED%94%8C%EB%9E%98%EA%B7%B8%EA%B0%80%20%EA%BA%BE%EC%9D%B4%EB%A9%B4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>그늘에서 지킨다!</t>
-  </si>
-  <si>
-    <t>학원, 러브 코미디, 하렘, 닌자</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%8A%98%EC%97%90%EC%84%9C%20%EC%A7%80%ED%82%A8%EB%8B%A4!</t>
-  </si>
-  <si>
-    <t>그대가 바라는 영원</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%8C%80%EA%B0%80%20%EB%B0%94%EB%9D%BC%EB%8A%94%20%EC%98%81%EC%9B%90</t>
-  </si>
-  <si>
-    <t>그대들, 어떻게 살 것인가</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%8C%80%EB%93%A4%2C%20%EC%96%B4%EB%96%BB%EA%B2%8C%20%EC%82%B4%20%EA%B2%83%EC%9D%B8%EA%B0%80</t>
-  </si>
-  <si>
-    <t>그라비테이션</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%9D%BC%EB%B9%84%ED%85%8C%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>그랑블루 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%91%EB%B8%94%EB%A3%A8%20%ED%8C%90%ED%83%80%EC%A7%80</t>
-  </si>
-  <si>
-    <t>그랑크레스트 전기</t>
-  </si>
-  <si>
-    <t>판타지, 전기</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%91%ED%81%AC%EB%A0%88%EC%8A%A4%ED%8A%B8%20%EC%A0%84%EA%B8%B0</t>
-  </si>
-  <si>
-    <t>그러나 죄인은 용과 춤춘다</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%9F%AC%EB%82%98%20%EC%A3%84%EC%9D%B8%EC%9D%80%20%EC%9A%A9%EA%B3%BC%20%EC%B6%A4%EC%B6%98%EB%8B%A4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>그럼에도 세상은 아름답다</t>
-  </si>
-  <si>
-    <t>판타지, 순정만화</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%9F%BC%EC%97%90%EB%8F%84%20%EC%84%B8%EC%83%81%EC%9D%80%20%EC%95%84%EB%A6%84%EB%8B%B5%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>그래도 마을은 돌아간다</t>
-  </si>
-  <si>
-    <t>일상, 개그</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%98%EB%8F%84%20%EB%A7%88%EC%9D%84%EC%9D%80%20%EB%8F%8C%EC%95%84%EA%B0%84%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>그래서 나는 H를 할 수 없다</t>
-  </si>
-  <si>
-    <t>학원, 판타지, 에로, 코미디, SF</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%98%EC%84%9C%20%EB%82%98%EB%8A%94%20H%EB%A5%BC%20%ED%95%A0%20%EC%88%98%20%EC%97%86%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>그레고리 호러쇼</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%A0%88%EA%B3%A0%EB%A6%AC%20%ED%98%B8%EB%9F%AC%EC%87%BC</t>
-  </si>
-  <si>
-    <t>그래플러 바키</t>
-  </si>
-  <si>
-    <t>격투</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%9E%98%ED%94%8C%EB%9F%AC%20%EB%B0%94%ED%82%A4</t>
-  </si>
-  <si>
-    <t>그레너디어(만화)</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%A0%88%EB%84%88%EB%94%94%EC%96%B4(%EB%A7%8C%ED%99%94)</t>
-  </si>
-  <si>
-    <t>그레이트 마징가</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%A0%88%EC%9D%B4%ED%8A%B8%20%EB%A7%88%EC%A7%95%EA%B0%80</t>
-  </si>
-  <si>
-    <t>그로이저X</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%A1%9C%EC%9D%B4%EC%A0%80X</t>
-  </si>
-  <si>
-    <t>그리자이아의 과실</t>
-  </si>
-  <si>
-    <t>로맨스 / 하렘</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%A6%AC%EC%9E%90%EC%9D%B4%EC%95%84%EC%9D%98%20%EA%B3%BC%EC%8B%A4/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>그 여름에서 기다릴게</t>
-  </si>
-  <si>
-    <t>SF, 드라마, 로맨스</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%20%EC%97%AC%EB%A6%84%EC%97%90%EC%84%9C%20%EA%B8%B0%EB%8B%A4%EB%A6%B4%EA%B2%8C</t>
-  </si>
-  <si>
-    <t>극상생도회</t>
-  </si>
-  <si>
-    <t>학원, 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B9%EC%83%81%EC%83%9D%EB%8F%84%ED%9A%8C</t>
-  </si>
-  <si>
-    <t>극흑의 브룬힐데</t>
-  </si>
-  <si>
-    <t>SF, 다크 판타지, 액션</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B9%ED%9D%91%EC%9D%98%20%EB%B8%8C%EB%A3%AC%ED%9E%90%EB%8D%B0</t>
-  </si>
-  <si>
-    <t>근육맨</t>
-  </si>
-  <si>
-    <t>프로레슬링, 배틀, 개그</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%BC%EC%9C%A1%EB%A7%A8</t>
-  </si>
-  <si>
-    <t>금붕어 주의보</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%88%EB%B6%95%EC%96%B4%20%EC%A3%BC%EC%9D%98%EB%B3%B4</t>
-  </si>
-  <si>
-    <t>금빛 모자이크</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%88%EB%B9%9B%20%EB%AA%A8%EC%9E%90%EC%9D%B4%ED%81%AC/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>금색의 갓슈</t>
-  </si>
-  <si>
-    <t>판타지, 소년만화</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%88%EC%83%89%EC%9D%98%20%EA%B0%93%EC%8A%88</t>
-  </si>
-  <si>
-    <t>금색의 코르다</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%88%EC%83%89%EC%9D%98%20%EC%BD%94%EB%A5%B4%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>글라스립</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%80%EB%9D%BC%EC%8A%A4%EB%A6%BD</t>
-  </si>
-  <si>
-    <t>기갑계 가리안</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%EA%B3%84%20%EA%B0%80%EB%A6%AC%EC%95%88</t>
-  </si>
-  <si>
-    <t>기갑엽병 메로우링크</t>
-  </si>
-  <si>
-    <t>칸다 타케유키</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%EC%97%BD%EB%B3%91%20%EB%A9%94%EB%A1%9C%EC%9A%B0%EB%A7%81%ED%81%AC</t>
-  </si>
-  <si>
-    <t>기갑전기 드라고나</t>
-  </si>
-  <si>
-    <t>거대로봇물, 리얼로봇물</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%EC%A0%84%EA%B8%B0%20%EB%93%9C%EB%9D%BC%EA%B3%A0%EB%82%98</t>
-  </si>
-  <si>
-    <t>기갑창세기 모스피다</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%EC%B0%BD%EC%84%B8%EA%B8%B0%20%EB%AA%A8%EC%8A%A4%ED%94%BC%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>기갑함대 다이라가XV</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EA%B0%91%ED%95%A8%EB%8C%80%20%EB%8B%A4%EC%9D%B4%EB%9D%BC%EA%B0%80XV</t>
-  </si>
-  <si>
-    <t>기교기전 히오우전기</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EA%B5%90%EA%B8%B0%EC%A0%84%20%ED%9E%88%EC%98%A4%EC%9A%B0%EC%A0%84%EA%B8%B0</t>
-  </si>
-  <si>
-    <t>기교소녀는 상처받지 않아</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EA%B5%90%EC%86%8C%EB%85%80%EB%8A%94%20%EC%83%81%EC%B2%98%EB%B0%9B%EC%A7%80%20%EC%95%8A%EC%95%84</t>
-  </si>
-  <si>
-    <t>기동경찰 패트레이버</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EA%B2%BD%EC%B0%B0%20%ED%8C%A8%ED%8A%B8%EB%A0%88%EC%9D%B4%EB%B2%84</t>
-  </si>
-  <si>
-    <t>기동경찰 패트레이버 극장판</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EA%B2%BD%EC%B0%B0%20%ED%8C%A8%ED%8A%B8%EB%A0%88%EC%9D%B4%EB%B2%84%20%EA%B7%B9%EC%9E%A5%ED%8C%90</t>
-  </si>
-  <si>
-    <t>기동경찰 패트레이버 극장판2</t>
-  </si>
-  <si>
-    <t>오시이 마모루</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EA%B2%BD%EC%B0%B0%20%ED%8C%A8%ED%8A%B8%EB%A0%88%EC%9D%B4%EB%B2%84%20%EA%B7%B9%EC%9E%A5%ED%8C%902</t>
-  </si>
-  <si>
-    <t>기동전사 건담 시리즈</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EC%A0%84%EC%82%AC%20%EA%B1%B4%EB%8B%B4%20%EC%8B%9C%EB%A6%AC%EC%A6%88</t>
-  </si>
-  <si>
-    <t>기동전사 건담씨</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EC%A0%84%EC%82%AC%20%EA%B1%B4%EB%8B%B4%EC%94%A8</t>
-  </si>
-  <si>
-    <t>기동전함 나데시코</t>
-  </si>
-  <si>
-    <t>밀리터리 SF, 스페이스 오페라, 거대로봇</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EC%A0%84%ED%95%A8%20%EB%82%98%EB%8D%B0%EC%8B%9C%EC%BD%94</t>
-  </si>
-  <si>
-    <t>기동천사 엔젤릭 레이어</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%8F%99%EC%B2%9C%EC%82%AC%20%EC%97%94%EC%A0%A4%EB%A6%AD%20%EB%A0%88%EC%9D%B4%EC%96%B4</t>
-  </si>
-  <si>
-    <t>기분 나쁜 모노노케안</t>
-  </si>
-  <si>
-    <t>요괴, 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%B6%84%20%EB%82%98%EC%81%9C%20%EB%AA%A8%EB%85%B8%EB%85%B8%EC%BC%80%EC%95%88</t>
-  </si>
-  <si>
-    <t>기생수 세이의 격률</t>
-  </si>
-  <si>
-    <t>호러, SF</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EC%83%9D%EC%88%98%20%EC%84%B8%EC%9D%B4%EC%9D%98%20%EA%B2%A9%EB%A5%A0</t>
-  </si>
-  <si>
-    <t>기수신세기 조이드</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EC%88%98%EC%8B%A0%EC%84%B8%EA%B8%B0%20%EC%A1%B0%EC%9D%B4%EB%93%9C</t>
-  </si>
-  <si>
-    <t>기신대전 기간틱 포뮬러</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EC%8B%A0%EB%8C%80%EC%A0%84%20%EA%B8%B0%EA%B0%84%ED%8B%B1%20%ED%8F%AC%EB%AE%AC%EB%9F%AC</t>
-  </si>
-  <si>
-    <t>기신병단</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EC%8B%A0%EB%B3%91%EB%8B%A8</t>
-  </si>
-  <si>
-    <t>기신포후 데몬베인</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EC%8B%A0%ED%8F%AC%ED%9B%84%20%EB%8D%B0%EB%AA%AC%EB%B2%A0%EC%9D%B8</t>
-  </si>
-  <si>
-    <t>기어와라! 냐루코 양</t>
-  </si>
-  <si>
-    <t>SF, 판타지, 러브 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EC%96%B4%EC%99%80%EB%9D%BC!%20%EB%83%90%EB%A3%A8%EC%BD%94%20%EC%96%91</t>
-  </si>
-  <si>
-    <t>기어전사 덴도</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/GEAR%EC%A0%84%EC%82%AC%20%EB%8D%B4%EB%8F%84</t>
-  </si>
-  <si>
-    <t>기프트</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/Gift</t>
-  </si>
-  <si>
-    <t>길모퉁이 마족</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B8%EB%AA%A8%ED%89%81%EC%9D%B4%20%EB%A7%88%EC%A1%B1/%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98</t>
-  </si>
-  <si>
-    <t>길 잃은 고양이 오버런!</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B8%20%EC%9E%83%EC%9D%80%20%EA%B3%A0%EC%96%91%EC%9D%B4%20%EC%98%A4%EB%B2%84%EB%9F%B0!</t>
-  </si>
-  <si>
-    <t>길가메쉬</t>
-  </si>
-  <si>
-    <t>SF, 다크 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B8%EA%B0%80%EB%A9%94%EC%89%AC(%EC%95%A0%EB%8B%88%EB%A9%94%EC%9D%B4%EC%85%98)</t>
-  </si>
-  <si>
-    <t>길티 크라운</t>
-  </si>
-  <si>
-    <t>SF, 다크 판타지, 사이버펑크</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B8%ED%8B%B0%20%ED%81%AC%EB%9D%BC%EC%9A%B4</t>
-  </si>
-  <si>
-    <t>김의 십자가</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B9%80%EC%9D%98%20%EC%8B%AD%EC%9E%90%EA%B0%80</t>
-  </si>
-  <si>
-    <t>꼬마마법사 레미</t>
-  </si>
-  <si>
-    <t>마법소녀, 성장, 코미디</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BC%AC%EB%A7%88%EB%A7%88%EB%B2%95%EC%82%AC%20%EB%A0%88%EB%AF%B8</t>
-  </si>
-  <si>
-    <t>꼬마숙녀 치에</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BC%AC%EB%A7%88%EC%88%99%EB%85%80%20%EC%B9%98%EC%97%90</t>
-  </si>
-  <si>
-    <t>꼬마자동차 붕붕</t>
-  </si>
-  <si>
-    <t>모험, 가족, 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BC%AC%EB%A7%88%EC%9E%90%EB%8F%99%EC%B0%A8%20%EB%B6%95%EB%B6%95</t>
-  </si>
-  <si>
-    <t>꾀돌이 삼총사</t>
-  </si>
-  <si>
-    <t>모험</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BE%80%EB%8F%8C%EC%9D%B4%20%EC%82%BC%EC%B4%9D%EC%82%AC</t>
-  </si>
-  <si>
-    <t>꽃이 피는 첫걸음</t>
-  </si>
-  <si>
-    <t>드라마</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BD%83%EC%9D%B4%20%ED%94%BC%EB%8A%94%20%EC%B2%AB%EA%B1%B8%EC%9D%8C</t>
-  </si>
-  <si>
-    <t>꾸러기 수비대</t>
-  </si>
-  <si>
-    <t>히어로</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BE%B8%EB%9F%AC%EA%B8%B0%20%EC%88%98%EB%B9%84%EB%8C%80</t>
-  </si>
-  <si>
-    <t>꿈의 사도</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BF%88%EC%9D%98%20%EC%82%AC%EB%8F%84</t>
-  </si>
-  <si>
-    <t>꿈의 크레용 왕국</t>
-  </si>
-  <si>
-    <t>동화, 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BF%88%EC%9D%98%20%ED%81%AC%EB%A0%88%EC%9A%A9%20%EC%99%95%EA%B5%AD</t>
-  </si>
-  <si>
-    <t>꿈빛 파티시엘</t>
-  </si>
-  <si>
-    <t>순정, 학원, 요리, 성장, 감성</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BF%88%EB%B9%9B%20%ED%8C%8C%ED%8B%B0%EC%8B%9C%EC%97%98</t>
-  </si>
-  <si>
-    <t>꿈별의 버튼노즈</t>
-  </si>
-  <si>
-    <t>가족, 어드벤처, 판타지</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%BF%88%EB%B3%84%EC%9D%98%20%EB%B2%84%ED%8A%BC%EB%85%B8%EC%A6%88</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1711,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
@@ -1628,6 +1892,12 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF5AC2E5"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2454,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A151" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -2569,1779 +2839,1898 @@
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>558</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>559</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>130</v>
+        <v>560</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>133</v>
+        <v>554</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.500000">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.500000" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.500000">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.500000" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>155</v>
+        <v>553</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>182</v>
+        <v>200</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>201</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>184</v>
+        <v>203</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>204</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>189</v>
+        <v>556</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>192</v>
+        <v>552</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>204</v>
+        <v>225</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>226</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>210</v>
+        <v>232</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>233</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>220</v>
+        <v>555</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>222</v>
+        <v>245</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>246</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>226</v>
+        <v>250</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>251</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>231</v>
+        <v>256</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>257</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>233</v>
+        <v>259</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>260</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>235</v>
+        <v>262</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>263</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>246</v>
+        <v>557</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>288</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>259</v>
+        <v>561</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>294</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>266</v>
+        <v>299</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>300</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>10</v>
+        <v>562</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>273</v>
+        <v>308</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>309</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>278</v>
+        <v>543</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>289</v>
+        <v>328</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>541</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>305</v>
+        <v>346</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>347</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>307</v>
+        <v>349</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>350</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>318</v>
+        <v>361</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>362</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>334</v>
+        <v>380</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>381</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>345</v>
+        <v>392</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>393</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>350</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B141" s="0" t="str"/>
       <c r="H141" s="3" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>354</v>
+        <v>403</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>404</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>357</v>
+        <v>546</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>369</v>
+        <v>544</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>371</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B149" s="0" t="str"/>
       <c r="H149" s="3" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>373</v>
+        <v>423</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>350</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>378</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B152" s="0" t="str"/>
       <c r="H152" s="3" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>380</v>
+        <v>430</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>431</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>388</v>
+        <v>548</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>25</v>
+        <v>446</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>398</v>
+        <v>454</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>455</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>400</v>
+        <v>457</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>458</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>405</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="B164" s="0" t="str"/>
       <c r="H164" s="3" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>407</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="B165" s="0" t="str"/>
       <c r="H165" s="3" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>412</v>
+        <v>470</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>471</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>418</v>
+        <v>549</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>424</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B172" s="0" t="str"/>
       <c r="H172" s="3" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>426</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B173" s="0" t="str"/>
       <c r="H173" s="3" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>435</v>
+        <v>498</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>499</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="B181" s="0" t="str"/>
       <c r="H181" s="3" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>450</v>
+        <v>514</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>515</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>456</v>
+        <v>551</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="16.500000" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>7</v>
+        <v>530</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="16.500000" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="16.500000" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16.500000" customHeight="1">
